--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/4_ECA/4_Submission/ANL252 ECA Score Sheet SBIZ T09 Munish Kumar.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/4_ECA/4_Submission/ANL252 ECA Score Sheet SBIZ T09 Munish Kumar.xlsx
@@ -5,26 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\4_ECA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\4_ECA\4_Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1542A609-1DDF-432D-9218-C7311297E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B194B669-774F-4E49-8723-F5A1C82EB1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Input Mark" sheetId="4" r:id="rId2"/>
-    <sheet name="Marks" sheetId="5" r:id="rId3"/>
+    <sheet name="Marks_unsorted" sheetId="5" r:id="rId3"/>
     <sheet name="Analytics per Qn" sheetId="6" r:id="rId4"/>
     <sheet name="Stats" sheetId="7" r:id="rId5"/>
     <sheet name="Bloom" sheetId="8" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Marks!$A$1:$K$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Marks_unsorted!$A$1:$L$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$18:$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="210">
   <si>
     <t>S/N</t>
   </si>
@@ -477,21 +474,6 @@
     <t>GBA Group</t>
   </si>
   <si>
-    <t>Question a</t>
-  </si>
-  <si>
-    <t>Question b</t>
-  </si>
-  <si>
-    <t>Question c</t>
-  </si>
-  <si>
-    <t>Question d</t>
-  </si>
-  <si>
-    <t>Question e</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -640,6 +622,57 @@
   </si>
   <si>
     <t>Inactive</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Question 5</t>
+  </si>
+  <si>
+    <t>Question 6</t>
+  </si>
+  <si>
+    <t>Learning Outcomes</t>
+  </si>
+  <si>
+    <t>Question Number</t>
+  </si>
+  <si>
+    <t>Bloom’s Level</t>
+  </si>
+  <si>
+    <t>Bloom’s Verb Replacement</t>
+  </si>
+  <si>
+    <t>Differentiate the various aspects of Python programming.</t>
+  </si>
+  <si>
+    <t>Prepare data for analysis using Python programming.</t>
+  </si>
+  <si>
+    <t>Analyse data using appropriate tools and techniques with Python programming.</t>
+  </si>
+  <si>
+    <t>Employ logic control flows in Python programmes.</t>
+  </si>
+  <si>
+    <t>Design Python programmes for performing data analytics.</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>üü</t>
   </si>
 </sst>
 </file>
@@ -652,7 +685,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -779,8 +812,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,6 +886,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="61">
     <border>
@@ -1631,7 +1676,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1796,34 +1841,6 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1849,6 +1866,218 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1858,200 +2087,85 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2222,34 +2336,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.7777777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7777777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.1388888888888889</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19444444444444445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.1388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3276,112 +3390,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Input Mark"/>
-      <sheetName val="Marks"/>
-      <sheetName val="Example"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="H8" t="str">
-            <v>85-100</v>
-          </cell>
-          <cell r="I8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9" t="str">
-            <v>80-84</v>
-          </cell>
-          <cell r="I9">
-            <v>0.1388888888888889</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10" t="str">
-            <v>75-79</v>
-          </cell>
-          <cell r="I10">
-            <v>0.19444444444444445</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11" t="str">
-            <v>70-74</v>
-          </cell>
-          <cell r="I11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12" t="str">
-            <v>65-69</v>
-          </cell>
-          <cell r="I12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13" t="str">
-            <v>60-64</v>
-          </cell>
-          <cell r="I13">
-            <v>0.33333333333333331</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14" t="str">
-            <v>55-59</v>
-          </cell>
-          <cell r="I14">
-            <v>0.22222222222222221</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15" t="str">
-            <v>50-54</v>
-          </cell>
-          <cell r="I15">
-            <v>0.1111111111111111</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16" t="str">
-            <v>45-49</v>
-          </cell>
-          <cell r="I16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17" t="str">
-            <v>40-44</v>
-          </cell>
-          <cell r="I17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18" t="str">
-            <v>&lt;40</v>
-          </cell>
-          <cell r="I18">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3708,8 +3716,8 @@
   </sheetPr>
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:F55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3727,36 +3735,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
       <c r="N1" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
       <c r="I3" s="38"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -3764,40 +3772,40 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="39">
         <v>44809</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="42"/>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="145"/>
       <c r="I4" s="43">
         <f>C4+14</f>
         <v>44823</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="54" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="67"/>
+      <c r="H5" s="143"/>
       <c r="I5" s="45" t="s">
         <v>24</v>
       </c>
@@ -3824,10 +3832,10 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="48"/>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="141"/>
       <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:18" ht="24.95" customHeight="1">
@@ -3865,10 +3873,10 @@
       <c r="A11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="29" t="s">
         <v>1</v>
       </c>
@@ -3993,10 +4001,10 @@
       <c r="A18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="29" t="s">
         <v>1</v>
       </c>
@@ -4636,16 +4644,16 @@
     <sortCondition ref="B11"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.511811023622047" bottom="0.23622047244094499" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4659,731 +4667,731 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="70"/>
-    <col min="5" max="5" width="16.5703125" style="70" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="70" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="70" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.42578125" style="70" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="70"/>
+    <col min="1" max="1" width="25.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="61"/>
+    <col min="5" max="5" width="16.5703125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="61" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="61" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="62" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1">
-      <c r="A2" s="72">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="73">
-        <f>Marks!K3</f>
-        <v>78</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="64">
+        <f>Marks_unsorted!L3</f>
+        <v>79</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="72">
+      <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="73">
-        <f>Marks!K4</f>
-        <v>78</v>
-      </c>
-      <c r="E3" s="76" t="s">
+      <c r="B3" s="64">
+        <f>Marks_unsorted!L4</f>
+        <v>60</v>
+      </c>
+      <c r="E3" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="68">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="72">
+      <c r="A4" s="63">
         <v>3</v>
       </c>
-      <c r="B4" s="73">
-        <f>Marks!K5</f>
-        <v>78</v>
-      </c>
-      <c r="E4" s="76" t="s">
+      <c r="B4" s="64">
+        <f>Marks_unsorted!L5</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="69">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>65.555555555555557</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A5" s="72">
+      <c r="A5" s="63">
         <v>4</v>
       </c>
-      <c r="B5" s="73">
-        <f>Marks!K6</f>
-        <v>78</v>
-      </c>
-      <c r="E5" s="68" t="s">
+      <c r="B5" s="64">
+        <f>Marks_unsorted!L6</f>
+        <v>72</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="70">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>10.39352667891878</v>
+        <v>21.340103092534488</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="72">
+      <c r="A6" s="63">
         <v>5</v>
       </c>
-      <c r="B6" s="73">
-        <f>Marks!K7</f>
-        <v>58</v>
-      </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="64">
+        <f>Marks_unsorted!L7</f>
+        <v>80</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="72">
+      <c r="A7" s="63">
         <v>6</v>
       </c>
-      <c r="B7" s="73">
-        <f>Marks!K8</f>
-        <v>58</v>
-      </c>
-      <c r="E7" s="68" t="s">
+      <c r="B7" s="64">
+        <f>Marks_unsorted!L8</f>
+        <v>43</v>
+      </c>
+      <c r="E7" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="60" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="72">
+      <c r="A8" s="63">
         <v>7</v>
       </c>
-      <c r="B8" s="73">
-        <f>Marks!K9</f>
-        <v>58</v>
-      </c>
-      <c r="E8" s="70" t="s">
+      <c r="B8" s="64">
+        <f>Marks_unsorted!L9</f>
+        <v>50</v>
+      </c>
+      <c r="E8" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="80">
+      <c r="G8" s="71">
         <v>5</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="81">
+      <c r="I8" s="72">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="72">
+      <c r="A9" s="63">
         <v>8</v>
       </c>
-      <c r="B9" s="73">
-        <f>Marks!K10</f>
-        <v>58</v>
-      </c>
-      <c r="E9" s="70" t="s">
+      <c r="B9" s="64">
+        <f>Marks_unsorted!L10</f>
+        <v>50</v>
+      </c>
+      <c r="E9" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G9" s="71">
         <v>5</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="73">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="63">
+        <v>9</v>
+      </c>
+      <c r="B10" s="64">
+        <f>Marks_unsorted!L11</f>
+        <v>61</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="71">
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="73">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="63">
+        <v>10</v>
+      </c>
+      <c r="B11" s="64">
+        <f>Marks_unsorted!L12</f>
+        <v>59</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="71">
+        <v>4</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="73">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="63">
+        <v>11</v>
+      </c>
+      <c r="B12" s="64">
+        <f>Marks_unsorted!L13</f>
+        <v>72</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="73">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="63">
+        <v>12</v>
+      </c>
+      <c r="B13" s="64">
+        <f>Marks_unsorted!L14</f>
+        <v>70</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="71">
+        <v>3</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="73">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="72">
-        <v>9</v>
-      </c>
-      <c r="B10" s="73">
-        <f>Marks!K11</f>
-        <v>58</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="80">
-        <v>4.5</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="82">
-        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
-        <v>0.19444444444444445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="72">
-        <v>10</v>
-      </c>
-      <c r="B11" s="73">
-        <f>Marks!K12</f>
-        <v>58</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="80">
-        <v>4</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" s="82">
-        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
+    <row r="14" spans="1:9">
+      <c r="A14" s="63">
+        <v>13</v>
+      </c>
+      <c r="B14" s="64">
+        <f>Marks_unsorted!L15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="72">
-        <v>11</v>
-      </c>
-      <c r="B12" s="73">
-        <f>Marks!K13</f>
-        <v>58</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="80">
-        <v>3.5</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="82">
-        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="72">
-        <v>12</v>
-      </c>
-      <c r="B13" s="73">
-        <f>Marks!K14</f>
-        <v>58</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="80">
-        <v>3</v>
-      </c>
-      <c r="H13" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="82">
-        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="72">
-        <v>13</v>
-      </c>
-      <c r="B14" s="73">
-        <f>Marks!K15</f>
-        <v>61</v>
-      </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G14" s="71">
         <v>2.5</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="82">
+      <c r="I14" s="73">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;60")-COUNTIF($B$2:$B$61,"&lt;55"))/$F$3,"")</f>
-        <v>0.22222222222222221</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="72">
+      <c r="A15" s="63">
         <v>14</v>
       </c>
-      <c r="B15" s="73">
-        <f>Marks!K16</f>
-        <v>61</v>
-      </c>
-      <c r="E15" s="70" t="s">
+      <c r="B15" s="64">
+        <f>Marks_unsorted!L16</f>
+        <v>62</v>
+      </c>
+      <c r="E15" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="71">
         <v>2</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="82">
+      <c r="I15" s="73">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3,"")</f>
-        <v>0.1111111111111111</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="72">
+      <c r="A16" s="63">
         <v>15</v>
       </c>
-      <c r="B16" s="73">
-        <f>Marks!K17</f>
-        <v>61</v>
-      </c>
-      <c r="E16" s="70" t="s">
+      <c r="B16" s="64">
+        <f>Marks_unsorted!L17</f>
+        <v>70</v>
+      </c>
+      <c r="E16" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="71">
         <v>1.5</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="I16" s="82">
+      <c r="I16" s="73">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45"))/$F$3,"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72">
+      <c r="A17" s="63">
         <v>16</v>
       </c>
-      <c r="B17" s="73">
-        <f>Marks!K18</f>
-        <v>61</v>
-      </c>
-      <c r="E17" s="70" t="s">
+      <c r="B17" s="64">
+        <f>Marks_unsorted!L18</f>
+        <v>70</v>
+      </c>
+      <c r="E17" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="80">
+      <c r="G17" s="71">
         <v>1</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="82">
+      <c r="I17" s="73">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;45")-COUNTIF($B$2:$B$61,"&lt;40"))/$F$3,"")</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A18" s="63">
+        <v>17</v>
+      </c>
+      <c r="B18" s="64">
+        <f>Marks_unsorted!L19</f>
+        <v>79</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="74">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A18" s="72">
-        <v>17</v>
-      </c>
-      <c r="B18" s="73">
-        <f>Marks!K19</f>
-        <v>61</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="83">
+      <c r="H18" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="75">
+        <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="63">
+        <v>18</v>
+      </c>
+      <c r="B19" s="64">
+        <f>Marks_unsorted!L20</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="63">
+        <v>19</v>
+      </c>
+      <c r="B20" s="64">
+        <f>Marks_unsorted!L21</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="63">
+        <v>20</v>
+      </c>
+      <c r="B21" s="64">
+        <f>Marks_unsorted!L22</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="63">
+        <v>21</v>
+      </c>
+      <c r="B22" s="64">
+        <f>Marks_unsorted!L23</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="63">
+        <v>22</v>
+      </c>
+      <c r="B23" s="64">
+        <f>Marks_unsorted!L24</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="63">
+        <v>23</v>
+      </c>
+      <c r="B24" s="64">
+        <f>Marks_unsorted!L25</f>
         <v>0</v>
       </c>
-      <c r="H18" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="84">
-        <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="72">
-        <v>18</v>
-      </c>
-      <c r="B19" s="73">
-        <f>Marks!K20</f>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="63">
+        <v>24</v>
+      </c>
+      <c r="B25" s="64">
+        <f>Marks_unsorted!L26</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="63">
+        <v>25</v>
+      </c>
+      <c r="B26" s="64">
+        <f>Marks_unsorted!L27</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="63">
+        <v>26</v>
+      </c>
+      <c r="B27" s="64">
+        <f>Marks_unsorted!L28</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="63">
+        <v>27</v>
+      </c>
+      <c r="B28" s="64">
+        <f>Marks_unsorted!L29</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="63">
+        <v>28</v>
+      </c>
+      <c r="B29" s="64">
+        <f>Marks_unsorted!L30</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="63">
+        <v>29</v>
+      </c>
+      <c r="B30" s="64">
+        <f>Marks_unsorted!L31</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="63">
+        <v>30</v>
+      </c>
+      <c r="B31" s="64">
+        <f>Marks_unsorted!L32</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="63">
+        <v>31</v>
+      </c>
+      <c r="B32" s="64">
+        <f>Marks_unsorted!L33</f>
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="72">
-        <v>19</v>
-      </c>
-      <c r="B20" s="73">
-        <f>Marks!K21</f>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A33" s="63">
+        <v>32</v>
+      </c>
+      <c r="B33" s="64">
+        <f>Marks_unsorted!L34</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A34" s="63">
+        <v>33</v>
+      </c>
+      <c r="B34" s="64">
+        <f>Marks_unsorted!L35</f>
+        <v>78</v>
+      </c>
+      <c r="D34" s="147" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="149"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="63">
+        <v>34</v>
+      </c>
+      <c r="B35" s="64">
+        <f>Marks_unsorted!L36</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="63">
+        <v>35</v>
+      </c>
+      <c r="B36" s="64">
+        <f>Marks_unsorted!L37</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="63">
+        <v>36</v>
+      </c>
+      <c r="B37" s="64">
+        <f>Marks_unsorted!L38</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="63">
+        <v>37</v>
+      </c>
+      <c r="B38" s="64"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="63">
+        <v>38</v>
+      </c>
+      <c r="B39" s="64"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="63">
+        <v>39</v>
+      </c>
+      <c r="B40" s="64"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="63">
+        <v>40</v>
+      </c>
+      <c r="B41" s="64"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="63">
+        <v>41</v>
+      </c>
+      <c r="B42" s="64"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="63">
+        <v>42</v>
+      </c>
+      <c r="B43" s="64"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="63">
+        <v>43</v>
+      </c>
+      <c r="B44" s="64"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="63">
+        <v>44</v>
+      </c>
+      <c r="B45" s="64"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="63">
+        <v>45</v>
+      </c>
+      <c r="B46" s="64"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="63">
+        <v>46</v>
+      </c>
+      <c r="B47" s="64"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="63">
+        <v>47</v>
+      </c>
+      <c r="B48" s="64"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="63">
+        <v>48</v>
+      </c>
+      <c r="B49" s="64"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="63">
+        <v>49</v>
+      </c>
+      <c r="B50" s="64"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="63">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="72">
-        <v>20</v>
-      </c>
-      <c r="B21" s="73">
-        <f>Marks!K22</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="72">
-        <v>21</v>
-      </c>
-      <c r="B22" s="73">
-        <f>Marks!K23</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="72">
-        <v>22</v>
-      </c>
-      <c r="B23" s="73">
-        <f>Marks!K24</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="72">
-        <v>23</v>
-      </c>
-      <c r="B24" s="73">
-        <f>Marks!K25</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="72">
-        <v>24</v>
-      </c>
-      <c r="B25" s="73">
-        <f>Marks!K26</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="72">
-        <v>25</v>
-      </c>
-      <c r="B26" s="73">
-        <f>Marks!K27</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="72">
-        <v>26</v>
-      </c>
-      <c r="B27" s="73">
-        <f>Marks!K28</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="72">
-        <v>27</v>
-      </c>
-      <c r="B28" s="73">
-        <f>Marks!K29</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="72">
-        <v>28</v>
-      </c>
-      <c r="B29" s="73">
-        <f>Marks!K30</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="72">
-        <v>29</v>
-      </c>
-      <c r="B30" s="73">
-        <f>Marks!K31</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="72">
-        <v>30</v>
-      </c>
-      <c r="B31" s="73">
-        <f>Marks!K32</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="72">
-        <v>31</v>
-      </c>
-      <c r="B32" s="73">
-        <f>Marks!K33</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A33" s="72">
-        <v>32</v>
-      </c>
-      <c r="B33" s="73">
-        <f>Marks!K34</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A34" s="72">
-        <v>33</v>
-      </c>
-      <c r="B34" s="73">
-        <f>Marks!K35</f>
-        <v>80</v>
-      </c>
-      <c r="D34" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="87"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="72">
-        <v>34</v>
-      </c>
-      <c r="B35" s="73">
-        <f>Marks!K36</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="72">
-        <v>35</v>
-      </c>
-      <c r="B36" s="73">
-        <f>Marks!K37</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="72">
-        <v>36</v>
-      </c>
-      <c r="B37" s="73">
-        <f>Marks!K38</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="72">
-        <v>37</v>
-      </c>
-      <c r="B38" s="73"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="72">
-        <v>38</v>
-      </c>
-      <c r="B39" s="73"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="72">
-        <v>39</v>
-      </c>
-      <c r="B40" s="73"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="72">
-        <v>40</v>
-      </c>
-      <c r="B41" s="73"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="72">
-        <v>41</v>
-      </c>
-      <c r="B42" s="73"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="72">
-        <v>42</v>
-      </c>
-      <c r="B43" s="73"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="72">
-        <v>43</v>
-      </c>
-      <c r="B44" s="73"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="72">
-        <v>44</v>
-      </c>
-      <c r="B45" s="73"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="72">
-        <v>45</v>
-      </c>
-      <c r="B46" s="73"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="72">
-        <v>46</v>
-      </c>
-      <c r="B47" s="73"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="72">
-        <v>47</v>
-      </c>
-      <c r="B48" s="73"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="72">
-        <v>48</v>
-      </c>
-      <c r="B49" s="73"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="72">
-        <v>49</v>
-      </c>
-      <c r="B50" s="73"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="72">
-        <v>50</v>
-      </c>
-      <c r="B51" s="73"/>
+      <c r="B51" s="64"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="72">
+      <c r="A52" s="63">
         <v>51</v>
       </c>
-      <c r="B52" s="73"/>
+      <c r="B52" s="64"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="72">
+      <c r="A53" s="63">
         <v>52</v>
       </c>
-      <c r="B53" s="73"/>
+      <c r="B53" s="64"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="72">
+      <c r="A54" s="63">
         <v>53</v>
       </c>
-      <c r="B54" s="73"/>
+      <c r="B54" s="64"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="72">
+      <c r="A55" s="63">
         <v>54</v>
       </c>
-      <c r="B55" s="73"/>
+      <c r="B55" s="64"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="72">
+      <c r="A56" s="63">
         <v>55</v>
       </c>
-      <c r="B56" s="73"/>
+      <c r="B56" s="64"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="72">
+      <c r="A57" s="63">
         <v>56</v>
       </c>
-      <c r="B57" s="73"/>
+      <c r="B57" s="64"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="72">
+      <c r="A58" s="63">
         <v>57</v>
       </c>
-      <c r="B58" s="73"/>
+      <c r="B58" s="64"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="72">
+      <c r="A59" s="63">
         <v>58</v>
       </c>
-      <c r="B59" s="73"/>
+      <c r="B59" s="64"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="72">
+      <c r="A60" s="63">
         <v>59</v>
       </c>
-      <c r="B60" s="73"/>
+      <c r="B60" s="64"/>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A61" s="88">
+      <c r="A61" s="76">
         <v>60</v>
       </c>
-      <c r="B61" s="89"/>
+      <c r="B61" s="77"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -5410,1789 +5418,1823 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CEFDD1-B3AF-4103-BA37-634A2CC1FA1A}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9.85546875" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="12.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="14" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="14.140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="99" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="99" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="99"/>
+    <col min="1" max="1" width="31.7109375" style="87" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="87" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9.85546875" style="87" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="12.28515625" style="87" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="14" style="87" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.140625" style="87" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="87" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="87" customWidth="1"/>
+    <col min="12" max="12" width="9" style="87" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A1" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="95" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A2" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92">
+        <v>5</v>
+      </c>
+      <c r="G2" s="93">
+        <v>20</v>
+      </c>
+      <c r="H2" s="93">
+        <v>25</v>
+      </c>
+      <c r="I2" s="94">
+        <v>25</v>
+      </c>
+      <c r="J2" s="95">
+        <v>15</v>
+      </c>
+      <c r="K2" s="95">
+        <v>10</v>
+      </c>
+      <c r="L2" s="96">
+        <f>SUM(F2:K2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="C3" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="E3" s="100">
+        <v>1</v>
+      </c>
+      <c r="F3" s="97">
+        <v>5</v>
+      </c>
+      <c r="G3" s="98">
+        <v>18</v>
+      </c>
+      <c r="H3" s="98">
+        <v>20</v>
+      </c>
+      <c r="I3" s="101">
+        <v>18</v>
+      </c>
+      <c r="J3" s="102">
+        <v>10</v>
+      </c>
+      <c r="K3" s="102">
+        <v>8</v>
+      </c>
+      <c r="L3" s="103">
+        <f>SUM(F3:K3)</f>
+        <v>79</v>
+      </c>
+      <c r="M3" s="176" t="s">
+        <v>209</v>
+      </c>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="B4" s="106" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="C4" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108">
+        <v>1</v>
+      </c>
+      <c r="F4" s="105">
+        <v>2</v>
+      </c>
+      <c r="G4" s="106">
+        <v>13</v>
+      </c>
+      <c r="H4" s="106">
+        <v>18</v>
+      </c>
+      <c r="I4" s="109">
+        <v>15</v>
+      </c>
+      <c r="J4" s="110">
+        <v>5</v>
+      </c>
+      <c r="K4" s="110">
+        <v>7</v>
+      </c>
+      <c r="L4" s="111">
+        <f>SUM(F4:K4)</f>
+        <v>60</v>
+      </c>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+    </row>
+    <row r="5" spans="1:19" ht="15">
+      <c r="A5" s="160" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="161" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104">
+      <c r="C5" s="162" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163">
+        <v>1</v>
+      </c>
+      <c r="F5" s="160"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="167">
+        <f t="shared" ref="L3:L38" si="0">SUM(F5:K5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A6" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115">
+        <v>1</v>
+      </c>
+      <c r="F6" s="112">
         <v>3</v>
       </c>
-      <c r="G2" s="105">
+      <c r="G6" s="113">
+        <v>15</v>
+      </c>
+      <c r="H6" s="113">
         <v>18</v>
       </c>
-      <c r="H2" s="105">
-        <v>24</v>
-      </c>
-      <c r="I2" s="106">
+      <c r="I6" s="116">
+        <v>20</v>
+      </c>
+      <c r="J6" s="117">
+        <v>8</v>
+      </c>
+      <c r="K6" s="117">
+        <v>8</v>
+      </c>
+      <c r="L6" s="118">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+    </row>
+    <row r="7" spans="1:19" ht="15">
+      <c r="A7" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="100">
+        <v>2</v>
+      </c>
+      <c r="F7" s="97">
+        <v>5</v>
+      </c>
+      <c r="G7" s="119">
+        <v>15</v>
+      </c>
+      <c r="H7" s="98">
+        <v>20</v>
+      </c>
+      <c r="I7" s="101">
+        <v>20</v>
+      </c>
+      <c r="J7" s="102">
+        <v>12</v>
+      </c>
+      <c r="K7" s="102">
+        <v>8</v>
+      </c>
+      <c r="L7" s="103">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108">
+        <v>2</v>
+      </c>
+      <c r="F8" s="105">
+        <v>5</v>
+      </c>
+      <c r="G8" s="106">
+        <v>18</v>
+      </c>
+      <c r="H8" s="106">
+        <v>13</v>
+      </c>
+      <c r="I8" s="109">
+        <v>2</v>
+      </c>
+      <c r="J8" s="110">
+        <v>0</v>
+      </c>
+      <c r="K8" s="110">
+        <v>5</v>
+      </c>
+      <c r="L8" s="111">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108">
+        <v>2</v>
+      </c>
+      <c r="F9" s="105">
+        <v>2</v>
+      </c>
+      <c r="G9" s="106">
         <v>10</v>
       </c>
-      <c r="J2" s="107">
+      <c r="H9" s="106">
+        <v>15</v>
+      </c>
+      <c r="I9" s="109">
+        <v>12</v>
+      </c>
+      <c r="J9" s="110">
+        <v>7</v>
+      </c>
+      <c r="K9" s="110">
+        <v>4</v>
+      </c>
+      <c r="L9" s="111">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+    </row>
+    <row r="10" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A10" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115">
+        <v>2</v>
+      </c>
+      <c r="F10" s="112">
+        <v>2</v>
+      </c>
+      <c r="G10" s="113">
+        <v>10</v>
+      </c>
+      <c r="H10" s="113">
+        <v>15</v>
+      </c>
+      <c r="I10" s="116">
+        <v>11</v>
+      </c>
+      <c r="J10" s="117">
+        <v>6</v>
+      </c>
+      <c r="K10" s="117">
+        <v>6</v>
+      </c>
+      <c r="L10" s="118">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+    </row>
+    <row r="11" spans="1:19" s="104" customFormat="1">
+      <c r="A11" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="100">
+        <v>3</v>
+      </c>
+      <c r="F11" s="97">
+        <v>2</v>
+      </c>
+      <c r="G11" s="98">
+        <v>12</v>
+      </c>
+      <c r="H11" s="98">
+        <v>17</v>
+      </c>
+      <c r="I11" s="101">
+        <v>20</v>
+      </c>
+      <c r="J11" s="102">
+        <v>5</v>
+      </c>
+      <c r="K11" s="102">
+        <v>5</v>
+      </c>
+      <c r="L11" s="103">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108">
+        <v>3</v>
+      </c>
+      <c r="F12" s="105">
+        <v>2</v>
+      </c>
+      <c r="G12" s="106">
+        <v>10</v>
+      </c>
+      <c r="H12" s="106">
+        <v>15</v>
+      </c>
+      <c r="I12" s="109">
+        <v>15</v>
+      </c>
+      <c r="J12" s="110">
+        <v>10</v>
+      </c>
+      <c r="K12" s="110">
+        <v>7</v>
+      </c>
+      <c r="L12" s="111">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108">
+        <v>3</v>
+      </c>
+      <c r="F13" s="105">
+        <v>4</v>
+      </c>
+      <c r="G13" s="106">
+        <v>12</v>
+      </c>
+      <c r="H13" s="106">
+        <v>20</v>
+      </c>
+      <c r="I13" s="109">
+        <v>18</v>
+      </c>
+      <c r="J13" s="110">
+        <v>10</v>
+      </c>
+      <c r="K13" s="110">
+        <v>8</v>
+      </c>
+      <c r="L13" s="111">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+    </row>
+    <row r="14" spans="1:19" s="104" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A14" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115">
+        <v>3</v>
+      </c>
+      <c r="F14" s="112">
+        <v>3</v>
+      </c>
+      <c r="G14" s="113">
+        <v>13</v>
+      </c>
+      <c r="H14" s="113">
+        <v>18</v>
+      </c>
+      <c r="I14" s="116">
+        <v>20</v>
+      </c>
+      <c r="J14" s="117">
+        <v>10</v>
+      </c>
+      <c r="K14" s="117">
+        <v>6</v>
+      </c>
+      <c r="L14" s="118">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="168" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="169" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="170" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="171" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="171">
+        <v>4</v>
+      </c>
+      <c r="F15" s="168"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="174">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="123">
+        <v>4</v>
+      </c>
+      <c r="F16" s="120">
+        <v>4</v>
+      </c>
+      <c r="G16" s="121">
+        <v>5</v>
+      </c>
+      <c r="H16" s="121">
+        <v>13</v>
+      </c>
+      <c r="I16" s="124">
+        <v>20</v>
+      </c>
+      <c r="J16" s="125">
+        <v>12</v>
+      </c>
+      <c r="K16" s="125">
+        <v>8</v>
+      </c>
+      <c r="L16" s="126">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108">
+        <v>4</v>
+      </c>
+      <c r="F17" s="105">
+        <v>2</v>
+      </c>
+      <c r="G17" s="106">
+        <v>18</v>
+      </c>
+      <c r="H17" s="106">
+        <v>16</v>
+      </c>
+      <c r="I17" s="109">
+        <v>20</v>
+      </c>
+      <c r="J17" s="110">
+        <v>8</v>
+      </c>
+      <c r="K17" s="110">
+        <v>6</v>
+      </c>
+      <c r="L17" s="111">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+    </row>
+    <row r="18" spans="1:19" s="104" customFormat="1">
+      <c r="A18" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108">
+        <v>4</v>
+      </c>
+      <c r="F18" s="105">
+        <v>3</v>
+      </c>
+      <c r="G18" s="106">
+        <v>15</v>
+      </c>
+      <c r="H18" s="106">
+        <v>18</v>
+      </c>
+      <c r="I18" s="109">
+        <v>18</v>
+      </c>
+      <c r="J18" s="110">
+        <v>8</v>
+      </c>
+      <c r="K18" s="110">
+        <v>8</v>
+      </c>
+      <c r="L18" s="111">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A19" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115">
+        <v>4</v>
+      </c>
+      <c r="F19" s="112">
+        <v>5</v>
+      </c>
+      <c r="G19" s="113">
+        <v>18</v>
+      </c>
+      <c r="H19" s="113">
+        <v>20</v>
+      </c>
+      <c r="I19" s="116">
+        <v>18</v>
+      </c>
+      <c r="J19" s="117">
+        <v>10</v>
+      </c>
+      <c r="K19" s="117">
+        <v>8</v>
+      </c>
+      <c r="L19" s="118">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="100">
+        <v>5</v>
+      </c>
+      <c r="F20" s="97">
+        <v>5</v>
+      </c>
+      <c r="G20" s="98">
+        <v>12</v>
+      </c>
+      <c r="H20" s="98">
+        <v>18</v>
+      </c>
+      <c r="I20" s="101">
+        <v>18</v>
+      </c>
+      <c r="J20" s="102">
+        <v>10</v>
+      </c>
+      <c r="K20" s="102">
+        <v>8</v>
+      </c>
+      <c r="L20" s="103">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108">
+        <v>5</v>
+      </c>
+      <c r="F21" s="105">
+        <v>4</v>
+      </c>
+      <c r="G21" s="106">
+        <v>15</v>
+      </c>
+      <c r="H21" s="106">
+        <v>20</v>
+      </c>
+      <c r="I21" s="109">
+        <v>20</v>
+      </c>
+      <c r="J21" s="110">
+        <v>10</v>
+      </c>
+      <c r="K21" s="110">
+        <v>8</v>
+      </c>
+      <c r="L21" s="111">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+    </row>
+    <row r="22" spans="1:19" s="104" customFormat="1">
+      <c r="A22" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="106" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108">
+        <v>5</v>
+      </c>
+      <c r="F22" s="105">
+        <v>3</v>
+      </c>
+      <c r="G22" s="106">
+        <v>12</v>
+      </c>
+      <c r="H22" s="106">
+        <v>18</v>
+      </c>
+      <c r="I22" s="109">
+        <v>18</v>
+      </c>
+      <c r="J22" s="110">
+        <v>11</v>
+      </c>
+      <c r="K22" s="110">
+        <v>8</v>
+      </c>
+      <c r="L22" s="111">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="104" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A23" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115">
+        <v>5</v>
+      </c>
+      <c r="F23" s="112">
+        <v>3</v>
+      </c>
+      <c r="G23" s="113">
+        <v>15</v>
+      </c>
+      <c r="H23" s="113">
+        <v>15</v>
+      </c>
+      <c r="I23" s="116">
+        <v>10</v>
+      </c>
+      <c r="J23" s="117">
+        <v>5</v>
+      </c>
+      <c r="K23" s="117">
+        <v>2</v>
+      </c>
+      <c r="L23" s="118">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="100">
+        <v>6</v>
+      </c>
+      <c r="F24" s="97">
+        <v>5</v>
+      </c>
+      <c r="G24" s="98">
+        <v>15</v>
+      </c>
+      <c r="H24" s="98">
+        <v>18</v>
+      </c>
+      <c r="I24" s="101">
+        <v>20</v>
+      </c>
+      <c r="J24" s="102">
+        <v>10</v>
+      </c>
+      <c r="K24" s="102">
+        <v>8</v>
+      </c>
+      <c r="L24" s="103">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="160" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="161" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163">
+        <v>6</v>
+      </c>
+      <c r="F25" s="160"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="166"/>
+      <c r="L25" s="167">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108">
+        <v>6</v>
+      </c>
+      <c r="F26" s="105">
+        <v>3</v>
+      </c>
+      <c r="G26" s="106">
+        <v>18</v>
+      </c>
+      <c r="H26" s="106">
+        <v>20</v>
+      </c>
+      <c r="I26" s="109">
+        <v>18</v>
+      </c>
+      <c r="J26" s="110">
+        <v>8</v>
+      </c>
+      <c r="K26" s="110">
+        <v>8</v>
+      </c>
+      <c r="L26" s="111">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+    </row>
+    <row r="27" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A27" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115">
+        <v>6</v>
+      </c>
+      <c r="F27" s="112">
+        <v>4</v>
+      </c>
+      <c r="G27" s="113">
+        <v>15</v>
+      </c>
+      <c r="H27" s="113">
+        <v>20</v>
+      </c>
+      <c r="I27" s="116">
+        <v>20</v>
+      </c>
+      <c r="J27" s="117">
+        <v>10</v>
+      </c>
+      <c r="K27" s="117">
+        <v>8</v>
+      </c>
+      <c r="L27" s="118">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="100">
+        <v>7</v>
+      </c>
+      <c r="F28" s="97">
+        <v>4</v>
+      </c>
+      <c r="G28" s="98">
+        <v>12</v>
+      </c>
+      <c r="H28" s="98">
+        <v>15</v>
+      </c>
+      <c r="I28" s="101">
+        <v>15</v>
+      </c>
+      <c r="J28" s="102">
+        <v>0</v>
+      </c>
+      <c r="K28" s="102">
+        <v>6</v>
+      </c>
+      <c r="L28" s="103">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108">
+        <v>7</v>
+      </c>
+      <c r="F29" s="105">
+        <v>4</v>
+      </c>
+      <c r="G29" s="106">
+        <v>15</v>
+      </c>
+      <c r="H29" s="106">
+        <v>18</v>
+      </c>
+      <c r="I29" s="109">
+        <v>18</v>
+      </c>
+      <c r="J29" s="110">
+        <v>10</v>
+      </c>
+      <c r="K29" s="110">
+        <v>7</v>
+      </c>
+      <c r="L29" s="111">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+    </row>
+    <row r="30" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A30" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="108">
-        <f>SUM(F2:J2)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="109" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="112">
-        <v>1</v>
-      </c>
-      <c r="F3" s="109">
-        <v>2</v>
-      </c>
-      <c r="G3" s="110">
+      <c r="B30" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115">
+        <v>7</v>
+      </c>
+      <c r="F30" s="112">
+        <v>4</v>
+      </c>
+      <c r="G30" s="113">
+        <v>12</v>
+      </c>
+      <c r="H30" s="113">
+        <v>20</v>
+      </c>
+      <c r="I30" s="116">
+        <v>18</v>
+      </c>
+      <c r="J30" s="117">
+        <v>10</v>
+      </c>
+      <c r="K30" s="117">
+        <v>8</v>
+      </c>
+      <c r="L30" s="118">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="104"/>
+    </row>
+    <row r="31" spans="1:19" s="104" customFormat="1">
+      <c r="A31" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="100">
+        <v>8</v>
+      </c>
+      <c r="F31" s="97">
+        <v>4</v>
+      </c>
+      <c r="G31" s="98">
+        <v>13</v>
+      </c>
+      <c r="H31" s="98">
         <v>15</v>
       </c>
-      <c r="H3" s="110">
-        <v>13</v>
-      </c>
-      <c r="I3" s="113">
+      <c r="I31" s="101">
+        <v>18</v>
+      </c>
+      <c r="J31" s="102">
+        <v>10</v>
+      </c>
+      <c r="K31" s="102">
+        <v>6</v>
+      </c>
+      <c r="L31" s="103">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108">
         <v>8</v>
       </c>
-      <c r="J3" s="114">
-        <v>40</v>
-      </c>
-      <c r="K3" s="115">
-        <f>SUM(F3:J3)</f>
-        <v>78</v>
-      </c>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="117" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="118" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="119" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120">
-        <v>1</v>
-      </c>
-      <c r="F4" s="117">
-        <v>2</v>
-      </c>
-      <c r="G4" s="118">
+      <c r="F32" s="105">
+        <v>3</v>
+      </c>
+      <c r="G32" s="106">
+        <v>18</v>
+      </c>
+      <c r="H32" s="106">
+        <v>20</v>
+      </c>
+      <c r="I32" s="109">
+        <v>20</v>
+      </c>
+      <c r="J32" s="110">
+        <v>11</v>
+      </c>
+      <c r="K32" s="110">
+        <v>7</v>
+      </c>
+      <c r="L32" s="111">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108">
+        <v>8</v>
+      </c>
+      <c r="F33" s="105">
+        <v>3</v>
+      </c>
+      <c r="G33" s="106">
+        <v>12</v>
+      </c>
+      <c r="H33" s="106">
+        <v>12</v>
+      </c>
+      <c r="I33" s="109">
+        <v>17</v>
+      </c>
+      <c r="J33" s="110">
+        <v>0</v>
+      </c>
+      <c r="K33" s="110">
+        <v>6</v>
+      </c>
+      <c r="L33" s="111">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+    </row>
+    <row r="34" spans="1:19" s="104" customFormat="1">
+      <c r="A34" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108">
+        <v>8</v>
+      </c>
+      <c r="F34" s="105">
+        <v>5</v>
+      </c>
+      <c r="G34" s="106">
         <v>15</v>
       </c>
-      <c r="H4" s="118">
-        <v>13</v>
-      </c>
-      <c r="I4" s="121">
+      <c r="H34" s="106">
+        <v>20</v>
+      </c>
+      <c r="I34" s="109">
+        <v>20</v>
+      </c>
+      <c r="J34" s="110">
+        <v>10</v>
+      </c>
+      <c r="K34" s="110">
+        <v>7</v>
+      </c>
+      <c r="L34" s="111">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A35" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="128" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="129" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130">
         <v>8</v>
       </c>
-      <c r="J4" s="122">
-        <v>40</v>
-      </c>
-      <c r="K4" s="123">
-        <f t="shared" ref="K4:K38" si="0">SUM(F4:J4)</f>
-        <v>78</v>
-      </c>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-    </row>
-    <row r="5" spans="1:18" ht="15">
-      <c r="A5" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="118" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="119" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120">
-        <v>1</v>
-      </c>
-      <c r="F5" s="117">
-        <v>2</v>
-      </c>
-      <c r="G5" s="124">
-        <v>15</v>
-      </c>
-      <c r="H5" s="118">
-        <v>13</v>
-      </c>
-      <c r="I5" s="121">
-        <v>8</v>
-      </c>
-      <c r="J5" s="122">
-        <v>40</v>
-      </c>
-      <c r="K5" s="123">
+      <c r="F35" s="127">
+        <v>5</v>
+      </c>
+      <c r="G35" s="128">
+        <v>18</v>
+      </c>
+      <c r="H35" s="128">
+        <v>20</v>
+      </c>
+      <c r="I35" s="131">
+        <v>18</v>
+      </c>
+      <c r="J35" s="132">
+        <v>10</v>
+      </c>
+      <c r="K35" s="132">
+        <v>7</v>
+      </c>
+      <c r="L35" s="133">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-    </row>
-    <row r="6" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A6" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="126" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128">
-        <v>1</v>
-      </c>
-      <c r="F6" s="125">
-        <v>2</v>
-      </c>
-      <c r="G6" s="126">
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="104"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="100">
+        <v>9</v>
+      </c>
+      <c r="F36" s="97">
+        <v>5</v>
+      </c>
+      <c r="G36" s="98">
         <v>15</v>
       </c>
-      <c r="H6" s="126">
-        <v>13</v>
-      </c>
-      <c r="I6" s="129">
+      <c r="H36" s="98">
+        <v>20</v>
+      </c>
+      <c r="I36" s="101">
+        <v>19</v>
+      </c>
+      <c r="J36" s="102">
         <v>8</v>
       </c>
-      <c r="J6" s="130">
+      <c r="K36" s="102">
+        <v>6</v>
+      </c>
+      <c r="L36" s="103">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="104"/>
+    </row>
+    <row r="37" spans="1:19" s="104" customFormat="1">
+      <c r="A37" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="106" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="131">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-    </row>
-    <row r="7" spans="1:18" ht="15">
-      <c r="A7" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="112">
-        <v>2</v>
-      </c>
-      <c r="F7" s="109">
-        <v>3</v>
-      </c>
-      <c r="G7" s="132">
-        <v>5</v>
-      </c>
-      <c r="H7" s="110">
+      <c r="D37" s="108"/>
+      <c r="E37" s="108">
+        <v>9</v>
+      </c>
+      <c r="F37" s="105">
         <v>4</v>
       </c>
-      <c r="I7" s="113">
-        <v>8</v>
-      </c>
-      <c r="J7" s="114">
-        <v>38</v>
-      </c>
-      <c r="K7" s="115">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="118" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120">
-        <v>2</v>
-      </c>
-      <c r="F8" s="117">
-        <v>3</v>
-      </c>
-      <c r="G8" s="118">
-        <v>5</v>
-      </c>
-      <c r="H8" s="118">
-        <v>4</v>
-      </c>
-      <c r="I8" s="121">
-        <v>8</v>
-      </c>
-      <c r="J8" s="122">
-        <v>38</v>
-      </c>
-      <c r="K8" s="123">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="118" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120">
-        <v>2</v>
-      </c>
-      <c r="F9" s="117">
-        <v>3</v>
-      </c>
-      <c r="G9" s="118">
-        <v>5</v>
-      </c>
-      <c r="H9" s="118">
-        <v>4</v>
-      </c>
-      <c r="I9" s="121">
-        <v>8</v>
-      </c>
-      <c r="J9" s="122">
-        <v>38</v>
-      </c>
-      <c r="K9" s="123">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-    </row>
-    <row r="10" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A10" s="125" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="126" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="127" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128">
-        <v>2</v>
-      </c>
-      <c r="F10" s="125">
-        <v>3</v>
-      </c>
-      <c r="G10" s="126">
-        <v>5</v>
-      </c>
-      <c r="H10" s="126">
-        <v>4</v>
-      </c>
-      <c r="I10" s="129">
-        <v>8</v>
-      </c>
-      <c r="J10" s="130">
-        <v>38</v>
-      </c>
-      <c r="K10" s="131">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="112">
-        <v>3</v>
-      </c>
-      <c r="F11" s="109">
-        <v>1</v>
-      </c>
-      <c r="G11" s="110">
-        <v>7</v>
-      </c>
-      <c r="H11" s="110">
-        <v>2</v>
-      </c>
-      <c r="I11" s="113">
-        <v>8</v>
-      </c>
-      <c r="J11" s="114">
-        <v>40</v>
-      </c>
-      <c r="K11" s="115">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="118" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120">
-        <v>3</v>
-      </c>
-      <c r="F12" s="117">
-        <v>1</v>
-      </c>
-      <c r="G12" s="118">
-        <v>7</v>
-      </c>
-      <c r="H12" s="118">
-        <v>2</v>
-      </c>
-      <c r="I12" s="121">
-        <v>8</v>
-      </c>
-      <c r="J12" s="122">
-        <v>40</v>
-      </c>
-      <c r="K12" s="123">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="119" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120">
-        <v>3</v>
-      </c>
-      <c r="F13" s="117">
-        <v>1</v>
-      </c>
-      <c r="G13" s="118">
-        <v>7</v>
-      </c>
-      <c r="H13" s="118">
-        <v>2</v>
-      </c>
-      <c r="I13" s="121">
-        <v>8</v>
-      </c>
-      <c r="J13" s="122">
-        <v>40</v>
-      </c>
-      <c r="K13" s="123">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-    </row>
-    <row r="14" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A14" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="126" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="127" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128">
-        <v>3</v>
-      </c>
-      <c r="F14" s="125">
-        <v>1</v>
-      </c>
-      <c r="G14" s="126">
-        <v>7</v>
-      </c>
-      <c r="H14" s="126">
-        <v>2</v>
-      </c>
-      <c r="I14" s="129">
-        <v>8</v>
-      </c>
-      <c r="J14" s="130">
-        <v>40</v>
-      </c>
-      <c r="K14" s="131">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="112">
-        <v>4</v>
-      </c>
-      <c r="F15" s="109">
-        <v>3</v>
-      </c>
-      <c r="G15" s="110">
-        <v>8</v>
-      </c>
-      <c r="H15" s="110">
-        <v>2</v>
-      </c>
-      <c r="I15" s="113">
-        <v>8</v>
-      </c>
-      <c r="J15" s="114">
-        <v>40</v>
-      </c>
-      <c r="K15" s="115">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="134" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="135" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="136" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="136">
-        <v>4</v>
-      </c>
-      <c r="F16" s="133">
-        <v>3</v>
-      </c>
-      <c r="G16" s="134">
-        <v>8</v>
-      </c>
-      <c r="H16" s="134">
-        <v>2</v>
-      </c>
-      <c r="I16" s="137">
-        <v>8</v>
-      </c>
-      <c r="J16" s="138">
-        <v>40</v>
-      </c>
-      <c r="K16" s="139">
-        <f>SUM(F16:J16)</f>
-        <v>61</v>
-      </c>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="117" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="118" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120">
-        <v>4</v>
-      </c>
-      <c r="F17" s="117">
-        <v>3</v>
-      </c>
-      <c r="G17" s="118">
-        <v>8</v>
-      </c>
-      <c r="H17" s="118">
-        <v>2</v>
-      </c>
-      <c r="I17" s="121">
-        <v>8</v>
-      </c>
-      <c r="J17" s="122">
-        <v>40</v>
-      </c>
-      <c r="K17" s="123">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="118" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120">
-        <v>4</v>
-      </c>
-      <c r="F18" s="117">
-        <v>3</v>
-      </c>
-      <c r="G18" s="118">
-        <v>8</v>
-      </c>
-      <c r="H18" s="118">
-        <v>2</v>
-      </c>
-      <c r="I18" s="121">
-        <v>8</v>
-      </c>
-      <c r="J18" s="122">
-        <v>40</v>
-      </c>
-      <c r="K18" s="123">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-    </row>
-    <row r="19" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A19" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="126" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128">
-        <v>4</v>
-      </c>
-      <c r="F19" s="125">
-        <v>3</v>
-      </c>
-      <c r="G19" s="126">
-        <v>8</v>
-      </c>
-      <c r="H19" s="126">
-        <v>2</v>
-      </c>
-      <c r="I19" s="129">
-        <v>8</v>
-      </c>
-      <c r="J19" s="130">
-        <v>40</v>
-      </c>
-      <c r="K19" s="131">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="109" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="110" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="112">
-        <v>5</v>
-      </c>
-      <c r="F20" s="109">
-        <v>1</v>
-      </c>
-      <c r="G20" s="110">
-        <v>8</v>
-      </c>
-      <c r="H20" s="110">
-        <v>2</v>
-      </c>
-      <c r="I20" s="113">
-        <v>3</v>
-      </c>
-      <c r="J20" s="114">
-        <v>36</v>
-      </c>
-      <c r="K20" s="115">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="118" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120">
-        <v>5</v>
-      </c>
-      <c r="F21" s="117">
-        <v>1</v>
-      </c>
-      <c r="G21" s="118">
-        <v>8</v>
-      </c>
-      <c r="H21" s="118">
-        <v>2</v>
-      </c>
-      <c r="I21" s="121">
-        <v>3</v>
-      </c>
-      <c r="J21" s="122">
-        <v>36</v>
-      </c>
-      <c r="K21" s="123">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="118" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="119" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120">
-        <v>5</v>
-      </c>
-      <c r="F22" s="117">
-        <v>1</v>
-      </c>
-      <c r="G22" s="118">
-        <v>8</v>
-      </c>
-      <c r="H22" s="118">
-        <v>2</v>
-      </c>
-      <c r="I22" s="121">
-        <v>3</v>
-      </c>
-      <c r="J22" s="122">
-        <v>36</v>
-      </c>
-      <c r="K22" s="123">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-    </row>
-    <row r="23" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A23" s="125" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="126" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128">
-        <v>5</v>
-      </c>
-      <c r="F23" s="125">
-        <v>1</v>
-      </c>
-      <c r="G23" s="126">
-        <v>8</v>
-      </c>
-      <c r="H23" s="126">
-        <v>2</v>
-      </c>
-      <c r="I23" s="129">
-        <v>3</v>
-      </c>
-      <c r="J23" s="130">
-        <v>36</v>
-      </c>
-      <c r="K23" s="131">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="110" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="112">
+      <c r="G37" s="106">
+        <v>14</v>
+      </c>
+      <c r="H37" s="106">
+        <v>15</v>
+      </c>
+      <c r="I37" s="109">
+        <v>17</v>
+      </c>
+      <c r="J37" s="110">
         <v>6</v>
       </c>
-      <c r="F24" s="109">
-        <v>1</v>
-      </c>
-      <c r="G24" s="110">
-        <v>13</v>
-      </c>
-      <c r="H24" s="110">
-        <v>2</v>
-      </c>
-      <c r="I24" s="113">
-        <v>8</v>
-      </c>
-      <c r="J24" s="114">
-        <v>40</v>
-      </c>
-      <c r="K24" s="115">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="118" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120">
+      <c r="K37" s="110">
         <v>6</v>
       </c>
-      <c r="F25" s="117">
-        <v>1</v>
-      </c>
-      <c r="G25" s="118">
-        <v>13</v>
-      </c>
-      <c r="H25" s="118">
-        <v>2</v>
-      </c>
-      <c r="I25" s="121">
-        <v>8</v>
-      </c>
-      <c r="J25" s="122">
-        <v>40</v>
-      </c>
-      <c r="K25" s="123">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="118" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="119" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120">
-        <v>6</v>
-      </c>
-      <c r="F26" s="117">
-        <v>1</v>
-      </c>
-      <c r="G26" s="118">
-        <v>13</v>
-      </c>
-      <c r="H26" s="118">
-        <v>2</v>
-      </c>
-      <c r="I26" s="121">
-        <v>8</v>
-      </c>
-      <c r="J26" s="122">
-        <v>40</v>
-      </c>
-      <c r="K26" s="123">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-    </row>
-    <row r="27" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A27" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="126" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128">
-        <v>6</v>
-      </c>
-      <c r="F27" s="125">
-        <v>1</v>
-      </c>
-      <c r="G27" s="126">
-        <v>13</v>
-      </c>
-      <c r="H27" s="126">
-        <v>2</v>
-      </c>
-      <c r="I27" s="129">
-        <v>8</v>
-      </c>
-      <c r="J27" s="130">
-        <v>40</v>
-      </c>
-      <c r="K27" s="131">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="112">
-        <v>7</v>
-      </c>
-      <c r="F28" s="109">
-        <v>3</v>
-      </c>
-      <c r="G28" s="110">
-        <v>11</v>
-      </c>
-      <c r="H28" s="110">
-        <v>4</v>
-      </c>
-      <c r="I28" s="113">
-        <v>6</v>
-      </c>
-      <c r="J28" s="114">
-        <v>38</v>
-      </c>
-      <c r="K28" s="115">
+      <c r="L37" s="111">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="116"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="119" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120">
-        <v>7</v>
-      </c>
-      <c r="F29" s="117">
-        <v>3</v>
-      </c>
-      <c r="G29" s="118">
-        <v>11</v>
-      </c>
-      <c r="H29" s="118">
-        <v>4</v>
-      </c>
-      <c r="I29" s="121">
-        <v>6</v>
-      </c>
-      <c r="J29" s="122">
-        <v>38</v>
-      </c>
-      <c r="K29" s="123">
+    </row>
+    <row r="38" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A38" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115">
+        <v>9</v>
+      </c>
+      <c r="F38" s="112">
+        <v>2</v>
+      </c>
+      <c r="G38" s="113">
+        <v>12</v>
+      </c>
+      <c r="H38" s="113">
+        <v>10</v>
+      </c>
+      <c r="I38" s="116">
+        <v>18</v>
+      </c>
+      <c r="J38" s="117">
+        <v>10</v>
+      </c>
+      <c r="K38" s="117">
+        <v>8</v>
+      </c>
+      <c r="L38" s="118">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="116"/>
-    </row>
-    <row r="30" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A30" s="125" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="126" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="127" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128">
-        <v>7</v>
-      </c>
-      <c r="F30" s="125">
-        <v>3</v>
-      </c>
-      <c r="G30" s="126">
-        <v>11</v>
-      </c>
-      <c r="H30" s="126">
-        <v>4</v>
-      </c>
-      <c r="I30" s="129">
-        <v>6</v>
-      </c>
-      <c r="J30" s="130">
-        <v>38</v>
-      </c>
-      <c r="K30" s="131">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="116"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="110" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="112">
-        <v>8</v>
-      </c>
-      <c r="F31" s="109">
-        <v>3</v>
-      </c>
-      <c r="G31" s="110">
-        <v>15</v>
-      </c>
-      <c r="H31" s="110">
-        <v>14</v>
-      </c>
-      <c r="I31" s="113">
-        <v>8</v>
-      </c>
-      <c r="J31" s="114">
-        <v>40</v>
-      </c>
-      <c r="K31" s="115">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="116"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="117" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="118" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="119" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120">
-        <v>8</v>
-      </c>
-      <c r="F32" s="117">
-        <v>3</v>
-      </c>
-      <c r="G32" s="118">
-        <v>15</v>
-      </c>
-      <c r="H32" s="118">
-        <v>14</v>
-      </c>
-      <c r="I32" s="121">
-        <v>8</v>
-      </c>
-      <c r="J32" s="122">
-        <v>40</v>
-      </c>
-      <c r="K32" s="123">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="118" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120">
-        <v>8</v>
-      </c>
-      <c r="F33" s="117">
-        <v>3</v>
-      </c>
-      <c r="G33" s="118">
-        <v>15</v>
-      </c>
-      <c r="H33" s="118">
-        <v>14</v>
-      </c>
-      <c r="I33" s="121">
-        <v>8</v>
-      </c>
-      <c r="J33" s="122">
-        <v>40</v>
-      </c>
-      <c r="K33" s="123">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="118" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120">
-        <v>8</v>
-      </c>
-      <c r="F34" s="117">
-        <v>3</v>
-      </c>
-      <c r="G34" s="118">
-        <v>15</v>
-      </c>
-      <c r="H34" s="118">
-        <v>14</v>
-      </c>
-      <c r="I34" s="121">
-        <v>8</v>
-      </c>
-      <c r="J34" s="122">
-        <v>40</v>
-      </c>
-      <c r="K34" s="123">
-        <f>SUM(F34:J34)</f>
-        <v>80</v>
-      </c>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-    </row>
-    <row r="35" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A35" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="141" t="s">
+      <c r="M38" s="104">
+        <f>COUNT(L3:L40)</f>
+        <v>36</v>
+      </c>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="134" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="135" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="142" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143">
-        <v>8</v>
-      </c>
-      <c r="F35" s="140">
-        <v>3</v>
-      </c>
-      <c r="G35" s="141">
-        <v>15</v>
-      </c>
-      <c r="H35" s="141">
-        <v>14</v>
-      </c>
-      <c r="I35" s="144">
-        <v>8</v>
-      </c>
-      <c r="J35" s="145">
-        <v>40</v>
-      </c>
-      <c r="K35" s="146">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="110" t="s">
+      <c r="C39" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137">
+        <v>10</v>
+      </c>
+      <c r="F39" s="150"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="112">
-        <v>9</v>
-      </c>
-      <c r="F36" s="109">
-        <v>2</v>
-      </c>
-      <c r="G36" s="110">
-        <v>15</v>
-      </c>
-      <c r="H36" s="110">
-        <v>14</v>
-      </c>
-      <c r="I36" s="113">
-        <v>8</v>
-      </c>
-      <c r="J36" s="114">
-        <v>40</v>
-      </c>
-      <c r="K36" s="115">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="117" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="118" t="s">
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+    </row>
+    <row r="40" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A40" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="119" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120">
-        <v>9</v>
-      </c>
-      <c r="F37" s="117">
-        <v>2</v>
-      </c>
-      <c r="G37" s="118">
-        <v>15</v>
-      </c>
-      <c r="H37" s="118">
-        <v>14</v>
-      </c>
-      <c r="I37" s="121">
-        <v>8</v>
-      </c>
-      <c r="J37" s="122">
-        <v>40</v>
-      </c>
-      <c r="K37" s="123">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="116"/>
-    </row>
-    <row r="38" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A38" s="125" t="s">
+      <c r="B40" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="126" t="s">
+      <c r="C40" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128">
-        <v>9</v>
-      </c>
-      <c r="F38" s="125">
-        <v>2</v>
-      </c>
-      <c r="G38" s="126">
-        <v>15</v>
-      </c>
-      <c r="H38" s="126">
-        <v>14</v>
-      </c>
-      <c r="I38" s="129">
-        <v>8</v>
-      </c>
-      <c r="J38" s="130">
-        <v>40</v>
-      </c>
-      <c r="K38" s="131">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="L38" s="116">
-        <f>COUNT(K3:K40)</f>
-        <v>36</v>
-      </c>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="148" t="s">
+      <c r="D40" s="115"/>
+      <c r="E40" s="115">
+        <v>10</v>
+      </c>
+      <c r="F40" s="155"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="158"/>
+      <c r="K40" s="158"/>
+      <c r="L40" s="159"/>
+      <c r="M40" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150">
-        <v>10</v>
-      </c>
-      <c r="F39" s="147"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="116" t="s">
-        <v>193</v>
-      </c>
-      <c r="M39" s="116"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="116"/>
-    </row>
-    <row r="40" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A40" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="B40" s="126" t="s">
-        <v>195</v>
-      </c>
-      <c r="C40" s="127" t="s">
-        <v>196</v>
-      </c>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128">
-        <v>10</v>
-      </c>
-      <c r="F40" s="125"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="116" t="s">
-        <v>197</v>
-      </c>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="116"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="116">
-        <f>670009-625429</f>
-        <v>44580</v>
-      </c>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="116"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="116"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="116"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="116"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="116"/>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="116"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="116"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="116"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="116"/>
-      <c r="O47" s="116"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="116"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="104"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="104"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="104"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="104"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="104"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="104"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="104"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="104"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="104"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
+      <c r="P47" s="104"/>
+      <c r="Q47" s="104"/>
+      <c r="R47" s="104"/>
+      <c r="S47" s="104"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K36" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:L36" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7224,14 +7266,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F78BAB-EA48-4141-BE5C-48A82F800B5D}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="175"/>
+    <col min="2" max="2" width="68.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="175" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="175" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="175"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="175" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="175" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="175" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="175" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="175" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="175" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="175" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="175" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="175" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="175" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="175" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="175">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>